--- a/DateBase/orders/Nha Thu_2025-4-27.xlsx
+++ b/DateBase/orders/Nha Thu_2025-4-27.xlsx
@@ -692,6 +692,9 @@
       <c r="A31" t="str">
         <v>6</v>
       </c>
+      <c r="C31" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-4-27.xlsx
+++ b/DateBase/orders/Nha Thu_2025-4-27.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0161015465551010101015101520201055101010101510320100</v>
+        <v>0161015465551010101015101520201055101010101510320102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-4-27.xlsx
+++ b/DateBase/orders/Nha Thu_2025-4-27.xlsx
@@ -696,7 +696,7 @@
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
       <c r="F31" t="str">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0161015465551010101015101520201055101010101510320102</v>
+        <v>01610154655510101010151015202010551010101015103201022</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-4-27.xlsx
+++ b/DateBase/orders/Nha Thu_2025-4-27.xlsx
@@ -761,6 +761,9 @@
       <c r="G2" t="str">
         <v>01610154655510101010151015202010551010101015103201022</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
